--- a/data/trans_orig/P19C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20553</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12981</v>
+        <v>13622</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30594</v>
+        <v>30341</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05718613047396588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03611896413135526</v>
+        <v>0.0379017473332928</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08512392689900661</v>
+        <v>0.08442015883503756</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>27141</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18243</v>
+        <v>18617</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37381</v>
+        <v>37779</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07213633501099768</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04848541397217992</v>
+        <v>0.0494793033440175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09935056757289407</v>
+        <v>0.1004081240917917</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -786,19 +786,19 @@
         <v>47694</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36353</v>
+        <v>36577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62037</v>
+        <v>62172</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06483245725967229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04941533766004221</v>
+        <v>0.04972088249143001</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08432876725992983</v>
+        <v>0.08451237882762398</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>338848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>328807</v>
+        <v>329060</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>346420</v>
+        <v>345779</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9428138695260341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9148760731009934</v>
+        <v>0.9155798411649626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9638810358686448</v>
+        <v>0.9620982526667072</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>365</v>
@@ -836,19 +836,19 @@
         <v>349111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>338871</v>
+        <v>338473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>358009</v>
+        <v>357635</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9278636649890023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9006494324271056</v>
+        <v>0.8995918759082082</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.95151458602782</v>
+        <v>0.9505206966559824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>706</v>
@@ -857,19 +857,19 @@
         <v>687959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>673616</v>
+        <v>673481</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>699300</v>
+        <v>699076</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9351675427403278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9156712327400701</v>
+        <v>0.915487621172376</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9505846623399578</v>
+        <v>0.9502791175085701</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>22755</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14575</v>
+        <v>14583</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35442</v>
+        <v>34037</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0395199111194975</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02531279448276863</v>
+        <v>0.02532735874553349</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06155427812575413</v>
+        <v>0.05911489961109823</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -982,19 +982,19 @@
         <v>21814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14234</v>
+        <v>12971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34042</v>
+        <v>33652</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03982795543698967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02598815484267452</v>
+        <v>0.02368320241379761</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06215433988700449</v>
+        <v>0.06144224246311945</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -1003,19 +1003,19 @@
         <v>44569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32218</v>
+        <v>33508</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59402</v>
+        <v>59729</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03967008464949497</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02867667779076103</v>
+        <v>0.02982483178332243</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05287291955084524</v>
+        <v>0.05316398068782097</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>553026</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>540339</v>
+        <v>541744</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>561206</v>
+        <v>561198</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9604800888805025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.938445721874246</v>
+        <v>0.9408851003889012</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9746872055172316</v>
+        <v>0.9746726412544658</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>499</v>
@@ -1053,19 +1053,19 @@
         <v>525894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513666</v>
+        <v>514056</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>533474</v>
+        <v>534737</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9601720445630103</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9378456601129956</v>
+        <v>0.9385577575368805</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9740118451573254</v>
+        <v>0.9763167975862027</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1032</v>
@@ -1074,19 +1074,19 @@
         <v>1078920</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1064087</v>
+        <v>1063760</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1091271</v>
+        <v>1089981</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.960329915350505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9471270804491547</v>
+        <v>0.9468360193121791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.971323322209239</v>
+        <v>0.9701751682166776</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>10415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5508</v>
+        <v>5396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17639</v>
+        <v>18172</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02070831624785329</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01095185603212103</v>
+        <v>0.01072852241673169</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03507276891759353</v>
+        <v>0.0361325939343193</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>16872</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9665</v>
+        <v>9335</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26775</v>
+        <v>26394</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02795330383846962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01601341387071785</v>
+        <v>0.01546682014044208</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04436113024799294</v>
+        <v>0.04373019717688768</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1220,19 +1220,19 @@
         <v>27287</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18163</v>
+        <v>19206</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39006</v>
+        <v>39439</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02466026288006765</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01641512442579733</v>
+        <v>0.01735733236748405</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03525167717938735</v>
+        <v>0.03564274848652722</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>492518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>485294</v>
+        <v>484761</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>497425</v>
+        <v>497537</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9792916837521467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9649272310824065</v>
+        <v>0.9638674060656808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.989048143967879</v>
+        <v>0.9892714775832684</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>559</v>
@@ -1270,19 +1270,19 @@
         <v>586693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>576790</v>
+        <v>577171</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>593900</v>
+        <v>594230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9720466961615304</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9556388697520081</v>
+        <v>0.9562698028231128</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9839865861292822</v>
+        <v>0.9845331798595581</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1034</v>
@@ -1291,19 +1291,19 @@
         <v>1079210</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1067491</v>
+        <v>1067058</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1088334</v>
+        <v>1087291</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9753397371199324</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9647483228206127</v>
+        <v>0.9643572515134727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9835848755742026</v>
+        <v>0.9826426676325156</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8323</v>
+        <v>8263</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24403</v>
+        <v>24551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03658214742416025</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02056326326184587</v>
+        <v>0.02041614327976276</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06029282145240739</v>
+        <v>0.06065690125974393</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>10065</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4833</v>
+        <v>5123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18038</v>
+        <v>18529</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02291658747672857</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0110034704797619</v>
+        <v>0.01166530477217719</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04107105106877999</v>
+        <v>0.04219051571751346</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1437,19 +1437,19 @@
         <v>24871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16595</v>
+        <v>16292</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37781</v>
+        <v>35687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02947055306655942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01966365314756026</v>
+        <v>0.01930501562515889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0447675857347757</v>
+        <v>0.04228709675541621</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>389941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>380345</v>
+        <v>380197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>396425</v>
+        <v>396485</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9634178525758398</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9397071785475926</v>
+        <v>0.9393430987402561</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9794367367381541</v>
+        <v>0.9795838567202371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>419</v>
@@ -1487,19 +1487,19 @@
         <v>429120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>421147</v>
+        <v>420656</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>434352</v>
+        <v>434062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9770834125232715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.958928948931219</v>
+        <v>0.9578094842824866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9889965295202381</v>
+        <v>0.9883346952278228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>785</v>
@@ -1508,19 +1508,19 @@
         <v>819062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>806152</v>
+        <v>808246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>827338</v>
+        <v>827641</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9705294469334406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9552324142652244</v>
+        <v>0.9577129032445837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9803363468524398</v>
+        <v>0.9806949843748411</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>3763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9118</v>
+        <v>10013</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01381560675414766</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003437102028509294</v>
+        <v>0.003391759786402593</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03347860219111878</v>
+        <v>0.0367651083325153</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1633,19 +1633,19 @@
         <v>6367</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2275</v>
+        <v>2927</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13592</v>
+        <v>13827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01995261084414088</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007129067495451266</v>
+        <v>0.009172967237464039</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04259571063162759</v>
+        <v>0.04333322731106931</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1654,19 +1654,19 @@
         <v>10129</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5054</v>
+        <v>5039</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18134</v>
+        <v>17587</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0171265674703202</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008545757021611771</v>
+        <v>0.008520676097681838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03066093782237566</v>
+        <v>0.02973638331693532</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>268586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>263231</v>
+        <v>262336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>271413</v>
+        <v>271425</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9861843932458524</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.966521397808881</v>
+        <v>0.9632348916674838</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9965628979714908</v>
+        <v>0.9966082402135973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>306</v>
@@ -1704,19 +1704,19 @@
         <v>312715</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>305490</v>
+        <v>305255</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>316807</v>
+        <v>316155</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9800473891558591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9574042893683717</v>
+        <v>0.9566667726889302</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9928709325045486</v>
+        <v>0.9908270327625359</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>578</v>
@@ -1725,19 +1725,19 @@
         <v>581302</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>573297</v>
+        <v>573844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>586377</v>
+        <v>586392</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9828734325296798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9693390621776242</v>
+        <v>0.9702636166830646</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9914542429783881</v>
+        <v>0.9914793239023182</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>9380</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4571</v>
+        <v>4784</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16610</v>
+        <v>16816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04408511410010225</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02148416375965651</v>
+        <v>0.02248635040100231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07806750503371443</v>
+        <v>0.07903334064783434</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1850,19 +1850,19 @@
         <v>8244</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3821</v>
+        <v>3654</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15201</v>
+        <v>14689</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03338303693629116</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01547328938516529</v>
+        <v>0.0147982976883377</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06155679821391694</v>
+        <v>0.05948455303799607</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1871,19 +1871,19 @@
         <v>17623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11011</v>
+        <v>10961</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26246</v>
+        <v>27425</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03833629862210434</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02395277145384593</v>
+        <v>0.02384281674133358</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05709256552093354</v>
+        <v>0.05965751769760498</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>203385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196155</v>
+        <v>195949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208194</v>
+        <v>207981</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9559148858998977</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9219324949662855</v>
+        <v>0.9209666593521654</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9785158362403434</v>
+        <v>0.9775136495989977</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>258</v>
@@ -1921,19 +1921,19 @@
         <v>238694</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>231737</v>
+        <v>232249</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243117</v>
+        <v>243284</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9666169630637088</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9384432017860834</v>
+        <v>0.940515446962004</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.984526710614835</v>
+        <v>0.9852017023116624</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>467</v>
@@ -1942,19 +1942,19 @@
         <v>442080</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>433457</v>
+        <v>432278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>448692</v>
+        <v>448742</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9616637013778957</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9429074344790664</v>
+        <v>0.9403424823023945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9760472285461541</v>
+        <v>0.9761571832586664</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>2650</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7384</v>
+        <v>7364</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02090152432183698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006365921999581962</v>
+        <v>0.006328073270280445</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05824671631640479</v>
+        <v>0.05809373296221072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2067,19 +2067,19 @@
         <v>4589</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1163</v>
+        <v>1133</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12709</v>
+        <v>11568</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02204274642822552</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005587998550217313</v>
+        <v>0.005439992679404378</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06104101918922237</v>
+        <v>0.0555578310471629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2088,19 +2088,19 @@
         <v>7239</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3285</v>
+        <v>3127</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14723</v>
+        <v>14450</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02161087186710481</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009807918675002315</v>
+        <v>0.009335977261095104</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04395280815195923</v>
+        <v>0.04313885581462783</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>124114</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119380</v>
+        <v>119400</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>125957</v>
+        <v>125962</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.979098475678163</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9417532836835952</v>
+        <v>0.9419062670377893</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.993634078000418</v>
+        <v>0.9936719267297196</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>178</v>
@@ -2138,19 +2138,19 @@
         <v>203619</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>195499</v>
+        <v>196640</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>207045</v>
+        <v>207075</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9779572535717744</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9389589808107774</v>
+        <v>0.9444421689528373</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9944120014497827</v>
+        <v>0.9945600073205957</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>305</v>
@@ -2159,19 +2159,19 @@
         <v>327733</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>320249</v>
+        <v>320522</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>331687</v>
+        <v>331845</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9783891281328951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9560471918480409</v>
+        <v>0.9568611441853726</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9901920813249979</v>
+        <v>0.990664022738905</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>84321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67332</v>
+        <v>68605</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103906</v>
+        <v>106707</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03435026937143167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02742923039110737</v>
+        <v>0.02794781488571579</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04232869421713061</v>
+        <v>0.04346974825348331</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -2284,19 +2284,19 @@
         <v>95091</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>75554</v>
+        <v>77640</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>114079</v>
+        <v>116482</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03469299096635507</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02756520095078297</v>
+        <v>0.02832608797436155</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04162041053303379</v>
+        <v>0.04249731685918948</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>179</v>
@@ -2305,19 +2305,19 @@
         <v>179412</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>154485</v>
+        <v>154006</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>206114</v>
+        <v>204304</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03453106929566539</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02973329122487542</v>
+        <v>0.02964120030179159</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03967023052524257</v>
+        <v>0.03932184875387561</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2370421</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2350836</v>
+        <v>2348035</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2387410</v>
+        <v>2386137</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9656497306285683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9576713057828695</v>
+        <v>0.9565302517465167</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9725707696088927</v>
+        <v>0.9720521851142843</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2584</v>
@@ -2355,19 +2355,19 @@
         <v>2645846</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2626858</v>
+        <v>2624455</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2665383</v>
+        <v>2663297</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.965307009033645</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9583795894669664</v>
+        <v>0.9575026831408102</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.972434799049217</v>
+        <v>0.9716739120256385</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4907</v>
@@ -2376,19 +2376,19 @@
         <v>5016267</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4989565</v>
+        <v>4991375</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5041194</v>
+        <v>5041673</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9654689307043346</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9603297694747568</v>
+        <v>0.9606781512461239</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9702667087751243</v>
+        <v>0.9703587996982082</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>33434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23428</v>
+        <v>23397</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45690</v>
+        <v>45006</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08817546835007765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06178672956020259</v>
+        <v>0.06170391172535053</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1204990419781806</v>
+        <v>0.1186933080055564</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -2744,19 +2744,19 @@
         <v>32823</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22972</v>
+        <v>23072</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45144</v>
+        <v>44481</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08847480957271217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06192086850729154</v>
+        <v>0.06218887004480077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1216859147762906</v>
+        <v>0.1198972049278286</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -2765,19 +2765,19 @@
         <v>66257</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51205</v>
+        <v>51390</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82396</v>
+        <v>81983</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08832350588087036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06825858756107692</v>
+        <v>0.06850462416491664</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1098373830187722</v>
+        <v>0.1092861083602151</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>345742</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>333486</v>
+        <v>334170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>355748</v>
+        <v>355779</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9118245316499224</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8795009580218194</v>
+        <v>0.8813066919944434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9382132704397974</v>
+        <v>0.9382960882746492</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>329</v>
@@ -2815,19 +2815,19 @@
         <v>338168</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325847</v>
+        <v>326510</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>348019</v>
+        <v>347919</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9115251904272879</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8783140852237095</v>
+        <v>0.8801027950721717</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9380791314927085</v>
+        <v>0.9378111299551992</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>669</v>
@@ -2836,19 +2836,19 @@
         <v>683909</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>667770</v>
+        <v>668183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>698961</v>
+        <v>698776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9116764941191297</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8901626169812277</v>
+        <v>0.8907138916397848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9317414124389231</v>
+        <v>0.9314953758350834</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>26884</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17571</v>
+        <v>18736</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38871</v>
+        <v>40274</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04501210304822457</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02941912198914074</v>
+        <v>0.03136911169516548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06508107262426055</v>
+        <v>0.06743014631853836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -2961,19 +2961,19 @@
         <v>31303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20357</v>
+        <v>20386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45569</v>
+        <v>44632</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05601720449833342</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03642920690289898</v>
+        <v>0.03648189462826957</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08154654706414961</v>
+        <v>0.07986993435129562</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -2982,19 +2982,19 @@
         <v>58187</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44160</v>
+        <v>43104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75747</v>
+        <v>76464</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05033161050031386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03819780772115169</v>
+        <v>0.03728489153685154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06552117670301146</v>
+        <v>0.0661407912177248</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>570383</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>558396</v>
+        <v>556993</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>579696</v>
+        <v>578531</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9549878969517754</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9349189273757395</v>
+        <v>0.9325698536814617</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9705808780108592</v>
+        <v>0.9686308883048345</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>496</v>
@@ -3032,19 +3032,19 @@
         <v>527507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513241</v>
+        <v>514178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>538453</v>
+        <v>538424</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9439827955016666</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9184534529358505</v>
+        <v>0.9201300656487045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9635707930971011</v>
+        <v>0.9635181053717304</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1051</v>
@@ -3053,19 +3053,19 @@
         <v>1097889</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1080329</v>
+        <v>1079612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1111916</v>
+        <v>1112972</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9496683894996861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9344788232969885</v>
+        <v>0.9338592087822752</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9618021922788482</v>
+        <v>0.9627151084631485</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>15784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9265</v>
+        <v>8983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25965</v>
+        <v>26217</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02690505591672154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01579358438265038</v>
+        <v>0.01531153176334916</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0442594124385705</v>
+        <v>0.04468853173820436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3178,19 +3178,19 @@
         <v>21772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13973</v>
+        <v>14385</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32295</v>
+        <v>32153</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03301550801909384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02118891330743655</v>
+        <v>0.02181294480451408</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04897190121520918</v>
+        <v>0.04875754814405588</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -3199,19 +3199,19 @@
         <v>37556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26904</v>
+        <v>26799</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50539</v>
+        <v>50650</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0301387812547008</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02159035445693743</v>
+        <v>0.02150647585606075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04055750653056146</v>
+        <v>0.0406468027762923</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>570867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>560686</v>
+        <v>560434</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>577386</v>
+        <v>577668</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9730949440832785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9557405875614294</v>
+        <v>0.9553114682617957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9842064156173496</v>
+        <v>0.9846884682366508</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>599</v>
@@ -3249,19 +3249,19 @@
         <v>637682</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>627159</v>
+        <v>627301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>645481</v>
+        <v>645069</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9669844919809062</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9510280987847909</v>
+        <v>0.9512424518559439</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9788110866925634</v>
+        <v>0.9781870551954855</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1147</v>
@@ -3270,19 +3270,19 @@
         <v>1208548</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1195565</v>
+        <v>1195454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1219200</v>
+        <v>1219305</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9698612187452992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9594424934694386</v>
+        <v>0.9593531972237075</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9784096455430625</v>
+        <v>0.9784935241439392</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>10722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5239</v>
+        <v>5041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20882</v>
+        <v>21337</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01975128550459649</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009650212070895741</v>
+        <v>0.009285533335178921</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03846721483827343</v>
+        <v>0.039306966067609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3395,19 +3395,19 @@
         <v>11904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5455</v>
+        <v>5511</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20600</v>
+        <v>21250</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02113078865045265</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009683499476277693</v>
+        <v>0.009782949009907359</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03656623388065185</v>
+        <v>0.03772000261943584</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3416,19 +3416,19 @@
         <v>22626</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13808</v>
+        <v>13681</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36130</v>
+        <v>35271</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02045382662012967</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01248275129693405</v>
+        <v>0.01236774244567206</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03266199024981368</v>
+        <v>0.03188513755619776</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>532117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>521957</v>
+        <v>521502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>537600</v>
+        <v>537798</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9802487144954035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9615327851617266</v>
+        <v>0.9606930339323905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9903497879291042</v>
+        <v>0.990714466664821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>483</v>
@@ -3466,19 +3466,19 @@
         <v>551447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>542751</v>
+        <v>542101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>557896</v>
+        <v>557840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9788692113495473</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9634337661193482</v>
+        <v>0.9622799973805642</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9903165005237223</v>
+        <v>0.9902170509900926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>957</v>
@@ -3487,19 +3487,19 @@
         <v>1083564</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1070060</v>
+        <v>1070919</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1092382</v>
+        <v>1092509</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9795461733798704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9673380097501865</v>
+        <v>0.9681148624438023</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9875172487030659</v>
+        <v>0.9876322575543279</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>4277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11783</v>
+        <v>14052</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0118386460170453</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00295441298986722</v>
+        <v>0.00298612627079881</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03261285909223135</v>
+        <v>0.03889230118437199</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3612,19 +3612,19 @@
         <v>5072</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1906</v>
+        <v>1960</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11083</v>
+        <v>11079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01298032534984631</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004878584821473884</v>
+        <v>0.005017509400837762</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02836510886604458</v>
+        <v>0.0283568947693271</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3633,19 +3633,19 @@
         <v>9349</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4198</v>
+        <v>4204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17767</v>
+        <v>17709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01243180658234447</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005581666318604684</v>
+        <v>0.005589614484558234</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02362546893178107</v>
+        <v>0.02354811230396069</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>357033</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>349527</v>
+        <v>347258</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>360243</v>
+        <v>360231</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9881613539829547</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9673871409077683</v>
+        <v>0.9611076988156276</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9970455870101328</v>
+        <v>0.9970138737292011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>348</v>
@@ -3683,19 +3683,19 @@
         <v>385643</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>379632</v>
+        <v>379636</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>388809</v>
+        <v>388755</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9870196746501537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9716348911339554</v>
+        <v>0.9716431052306729</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9951214151785261</v>
+        <v>0.9949824905991622</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>678</v>
@@ -3704,19 +3704,19 @@
         <v>742676</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>734258</v>
+        <v>734316</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>747827</v>
+        <v>747821</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9875681934176556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9763745310682188</v>
+        <v>0.9764518876960393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9944183336813953</v>
+        <v>0.9944103855154418</v>
       </c>
     </row>
     <row r="18">
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6980</v>
+        <v>6014</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007444374794210115</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02659068884988264</v>
+        <v>0.02290975201980498</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3829,19 +3829,19 @@
         <v>5595</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12058</v>
+        <v>12867</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01861302910051187</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006289110550404196</v>
+        <v>0.006270908476072776</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04011437911966725</v>
+        <v>0.04280630796844542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -3850,19 +3850,19 @@
         <v>7549</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2863</v>
+        <v>2901</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15103</v>
+        <v>15924</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01340654379029033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005084724303863232</v>
+        <v>0.005152864541124448</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02682249885039553</v>
+        <v>0.02827964390110025</v>
       </c>
     </row>
     <row r="20">
@@ -3879,7 +3879,7 @@
         <v>260536</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255510</v>
+        <v>256476</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>262490</v>
@@ -3888,7 +3888,7 @@
         <v>0.9925556252057899</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9734093111501174</v>
+        <v>0.9770902479801953</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3900,19 +3900,19 @@
         <v>294994</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>288531</v>
+        <v>287722</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>298699</v>
+        <v>298704</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9813869708994881</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9598856208803328</v>
+        <v>0.9571936920315546</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9937108894495957</v>
+        <v>0.9937290915239273</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -3921,19 +3921,19 @@
         <v>555530</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>547976</v>
+        <v>547155</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>560216</v>
+        <v>560178</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9865934562097096</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9731775011496044</v>
+        <v>0.9717203560988997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9949152756961368</v>
+        <v>0.9948471354588756</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>4339</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1265</v>
+        <v>1063</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11191</v>
+        <v>10222</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02346154251216346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006840403488868302</v>
+        <v>0.005746609801107022</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06051624154801086</v>
+        <v>0.05527673981175361</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4046,19 +4046,19 @@
         <v>4471</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11206</v>
+        <v>10153</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01478389428547867</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003788477194173792</v>
+        <v>0.003811054296943855</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03705659864338357</v>
+        <v>0.03357287648000006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -4067,19 +4067,19 @@
         <v>8809</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4154</v>
+        <v>4102</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16588</v>
+        <v>16192</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0180767207961892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008524333181531117</v>
+        <v>0.008417282672211182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03403846177962688</v>
+        <v>0.03322522232389828</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>180587</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>173735</v>
+        <v>174704</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>183661</v>
+        <v>183863</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9765384574878365</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9394837584519892</v>
+        <v>0.9447232601882474</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9931595965111317</v>
+        <v>0.994253390198893</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -4117,19 +4117,19 @@
         <v>297942</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>291207</v>
+        <v>292260</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>301267</v>
+        <v>301260</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9852161057145213</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9629434013566164</v>
+        <v>0.9664271235199999</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9962115228058263</v>
+        <v>0.9961889457030562</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>430</v>
@@ -4138,19 +4138,19 @@
         <v>478530</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>470751</v>
+        <v>471147</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>483185</v>
+        <v>483237</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9819232792038108</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9659615382203732</v>
+        <v>0.9667747776761018</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9914756668184689</v>
+        <v>0.9915827173277889</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>97394</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79892</v>
+        <v>79274</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>122339</v>
+        <v>119055</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03341524084440683</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02741024511457341</v>
+        <v>0.0271982512939499</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0419736786117124</v>
+        <v>0.04084683314317323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>105</v>
@@ -4263,19 +4263,19 @@
         <v>112940</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>93423</v>
+        <v>93554</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>136581</v>
+        <v>134534</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03589583331884923</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02969286582727178</v>
+        <v>0.02973447382600873</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04340977623234475</v>
+        <v>0.04275910362342579</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>196</v>
@@ -4284,19 +4284,19 @@
         <v>210334</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>181378</v>
+        <v>183624</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240952</v>
+        <v>240874</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0347029436919742</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02992560407206877</v>
+        <v>0.03029611492634642</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03975455504274893</v>
+        <v>0.0397417678708707</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2817265</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2792320</v>
+        <v>2795604</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2834767</v>
+        <v>2835385</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9665847591555932</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9580263213882877</v>
+        <v>0.9591531668568267</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9725897548854265</v>
+        <v>0.97280174870605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2810</v>
@@ -4334,19 +4334,19 @@
         <v>3033381</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3009740</v>
+        <v>3011787</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3052898</v>
+        <v>3052767</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9641041666811507</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9565902237676549</v>
+        <v>0.9572408963765742</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9703071341727282</v>
+        <v>0.9702655261739912</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5455</v>
@@ -4355,19 +4355,19 @@
         <v>5850646</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5820028</v>
+        <v>5820106</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5879602</v>
+        <v>5877356</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9652970563080258</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9602454449572508</v>
+        <v>0.9602582321291293</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9700743959279311</v>
+        <v>0.9697038850736536</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>19318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12161</v>
+        <v>12375</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30135</v>
+        <v>29115</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05474963300707988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03446676305134874</v>
+        <v>0.03507168123988111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08540731314360527</v>
+        <v>0.0825173045186</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -4723,19 +4723,19 @@
         <v>26876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18386</v>
+        <v>18419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37124</v>
+        <v>37895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07636797453447357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05224269957702331</v>
+        <v>0.05233714988286787</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1054878611395095</v>
+        <v>0.107677194784696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -4744,19 +4744,19 @@
         <v>46194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33837</v>
+        <v>35257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59725</v>
+        <v>59585</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06554485569110469</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0480108458783521</v>
+        <v>0.05002600077851032</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0847444105587532</v>
+        <v>0.08454585636841121</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>333522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322705</v>
+        <v>323725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>340679</v>
+        <v>340465</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9452503669929201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9145926868563947</v>
+        <v>0.9174826954814002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9655332369486512</v>
+        <v>0.964928318760119</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>331</v>
@@ -4794,19 +4794,19 @@
         <v>325054</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>314806</v>
+        <v>314035</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333544</v>
+        <v>333511</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9236320254655265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8945121388604905</v>
+        <v>0.892322805215304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9477573004229768</v>
+        <v>0.9476628501171321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>643</v>
@@ -4815,19 +4815,19 @@
         <v>658576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>645045</v>
+        <v>645185</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>670933</v>
+        <v>669513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9344551443088953</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9152555894412467</v>
+        <v>0.9154541436315887</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9519891541216479</v>
+        <v>0.9499739992214897</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>18043</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11026</v>
+        <v>11490</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27784</v>
+        <v>27552</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03659259592817875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02236168027331641</v>
+        <v>0.02330202235188922</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05634775937889862</v>
+        <v>0.05587736023282163</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -4940,19 +4940,19 @@
         <v>27304</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19140</v>
+        <v>17868</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39721</v>
+        <v>38431</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05496857282196363</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03853332895654339</v>
+        <v>0.03597207895132803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07996663791475642</v>
+        <v>0.0773696104779429</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -4961,19 +4961,19 @@
         <v>45347</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33938</v>
+        <v>33095</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59738</v>
+        <v>59569</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04581439148659133</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03428773057518991</v>
+        <v>0.03343652457101162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06035378931530699</v>
+        <v>0.0601827560884695</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>475035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465294</v>
+        <v>465526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>482052</v>
+        <v>481588</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9634074040718212</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.943652240621101</v>
+        <v>0.9441226397671784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9776383197266836</v>
+        <v>0.9766979776481107</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>483</v>
@@ -5011,19 +5011,19 @@
         <v>469416</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>456999</v>
+        <v>458289</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>477580</v>
+        <v>478852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9450314271780363</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9200333620852436</v>
+        <v>0.9226303895220572</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9614666710434566</v>
+        <v>0.964027921048672</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -5032,19 +5032,19 @@
         <v>944450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>930059</v>
+        <v>930228</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>955859</v>
+        <v>956702</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9541856085134087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9396462106846927</v>
+        <v>0.9398172439115305</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.96571226942481</v>
+        <v>0.9665634754289886</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>18985</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12085</v>
+        <v>11828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29999</v>
+        <v>29698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03403097316207104</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02166375871191408</v>
+        <v>0.02120193740536651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05377524589548454</v>
+        <v>0.05323582220234507</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5157,19 +5157,19 @@
         <v>14468</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8326</v>
+        <v>8433</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22969</v>
+        <v>23608</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02524658094144459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0145280964421473</v>
+        <v>0.01471530669263344</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04007959518912647</v>
+        <v>0.0411946667544413</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -5178,19 +5178,19 @@
         <v>33453</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24703</v>
+        <v>23689</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47282</v>
+        <v>47352</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02957966550010097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02184252766621168</v>
+        <v>0.02094599816600182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04180750325624704</v>
+        <v>0.04186942905853411</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>538875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527861</v>
+        <v>528162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545775</v>
+        <v>546032</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.965969026837929</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9462247541045153</v>
+        <v>0.9467641777976549</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9783362412880859</v>
+        <v>0.9787980625946335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>561</v>
@@ -5228,19 +5228,19 @@
         <v>558612</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>550111</v>
+        <v>549472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>564754</v>
+        <v>564647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9747534190585554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9599204048108736</v>
+        <v>0.9588053332455585</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9854719035578527</v>
+        <v>0.9852846933073666</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1074</v>
@@ -5249,19 +5249,19 @@
         <v>1097487</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1083658</v>
+        <v>1083588</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1106237</v>
+        <v>1107251</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9704203344998991</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9581924967437532</v>
+        <v>0.9581305709414659</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9781574723337884</v>
+        <v>0.9790540018339983</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>9008</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3935</v>
+        <v>4124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16760</v>
+        <v>16739</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01758041000514178</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007679527049257831</v>
+        <v>0.008048962333155883</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03271094029227251</v>
+        <v>0.03266906282013918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5374,19 +5374,19 @@
         <v>16163</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9963</v>
+        <v>9417</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25962</v>
+        <v>25482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02966347496157697</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01828507623282878</v>
+        <v>0.01728221708373943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04764646612849997</v>
+        <v>0.04676563777757772</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -5395,19 +5395,19 @@
         <v>25171</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15807</v>
+        <v>16686</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36680</v>
+        <v>38251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02380772965161467</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01495111661205699</v>
+        <v>0.01578209739836195</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03469390009417252</v>
+        <v>0.03617910103830305</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>503364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495612</v>
+        <v>495633</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>508437</v>
+        <v>508248</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9824195899948582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9672890597077275</v>
+        <v>0.9673309371798603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9923204729507421</v>
+        <v>0.9919510376668441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>492</v>
@@ -5445,19 +5445,19 @@
         <v>528721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>518922</v>
+        <v>519402</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>534921</v>
+        <v>535467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.970336525038423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9523535338714999</v>
+        <v>0.9532343622224223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9817149237671712</v>
+        <v>0.9827177829162606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>947</v>
@@ -5466,19 +5466,19 @@
         <v>1032085</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1020576</v>
+        <v>1019005</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1041449</v>
+        <v>1040570</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9761922703483853</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9653060999058277</v>
+        <v>0.9638208989616972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9850488833879432</v>
+        <v>0.9842179026016381</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>5871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2064</v>
+        <v>2095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13410</v>
+        <v>13765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01582359618086814</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005561976200887566</v>
+        <v>0.005646974215429955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03614552441988031</v>
+        <v>0.03710192896162127</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -5591,19 +5591,19 @@
         <v>7517</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3241</v>
+        <v>3170</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15198</v>
+        <v>15024</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01898748010348596</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008185822805088205</v>
+        <v>0.008007178491248323</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03839184343794381</v>
+        <v>0.03795091667101405</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -5612,19 +5612,19 @@
         <v>13387</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6956</v>
+        <v>6706</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21877</v>
+        <v>22439</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0174568439921222</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00907064906402095</v>
+        <v>0.008744735419523074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02852735154265714</v>
+        <v>0.02926066199971739</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>365131</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>357592</v>
+        <v>357237</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>368938</v>
+        <v>368907</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9841764038191319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9638544755801197</v>
+        <v>0.9628980710383759</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9944380237991125</v>
+        <v>0.9943530257845696</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>338</v>
@@ -5662,19 +5662,19 @@
         <v>388356</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>380675</v>
+        <v>380849</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>392632</v>
+        <v>392703</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9810125198965141</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9616081565620563</v>
+        <v>0.962049083328986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9918141771949118</v>
+        <v>0.9919928215087517</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>662</v>
@@ -5683,19 +5683,19 @@
         <v>753488</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>744998</v>
+        <v>744436</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>759919</v>
+        <v>760169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9825431560078778</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9714726484573428</v>
+        <v>0.9707393380002826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.990929350935979</v>
+        <v>0.9912552645804769</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>3746</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>938</v>
+        <v>902</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10145</v>
+        <v>9180</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01627808013438763</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004077101088189906</v>
+        <v>0.003921270602034451</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04408334624120818</v>
+        <v>0.03989342728153755</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5808,19 +5808,19 @@
         <v>6774</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2732</v>
+        <v>2674</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14909</v>
+        <v>13284</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02446112643213303</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009865230097408561</v>
+        <v>0.009656406415774444</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05383440193166264</v>
+        <v>0.04796538159883187</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5829,19 +5829,19 @@
         <v>10520</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5708</v>
+        <v>5005</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19447</v>
+        <v>18898</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02074741140674727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0112572149961225</v>
+        <v>0.009870188034612504</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03835117191276549</v>
+        <v>0.03726852963290241</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>226379</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219980</v>
+        <v>220945</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229187</v>
+        <v>229223</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9837219198656124</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9559166537587925</v>
+        <v>0.9601065727184627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9959228989118101</v>
+        <v>0.9960787293979655</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -5879,19 +5879,19 @@
         <v>270174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262039</v>
+        <v>263664</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>274216</v>
+        <v>274274</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9755388735678669</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9461655980683373</v>
+        <v>0.9520346184011697</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9901347699025914</v>
+        <v>0.9903435935842256</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>476</v>
@@ -5900,19 +5900,19 @@
         <v>496554</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>487627</v>
+        <v>488176</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>501366</v>
+        <v>502069</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9792525885932527</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9616488280872345</v>
+        <v>0.9627314703670976</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9887427850038775</v>
+        <v>0.9901298119653874</v>
       </c>
     </row>
     <row r="21">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4507</v>
+        <v>4011</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005405901859731222</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03064527274644439</v>
+        <v>0.02727207484635095</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -6025,19 +6025,19 @@
         <v>3973</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10873</v>
+        <v>10681</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01743584201134925</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005611679422223573</v>
+        <v>0.005662510000774572</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04771344259763688</v>
+        <v>0.04686976743463242</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -6046,19 +6046,19 @@
         <v>4768</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1347</v>
+        <v>1303</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13258</v>
+        <v>12011</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01271747502385888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003592365001921922</v>
+        <v>0.00347625708499765</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03535966997406046</v>
+        <v>0.03203459388405398</v>
       </c>
     </row>
     <row r="23">
@@ -6075,7 +6075,7 @@
         <v>146262</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>142550</v>
+        <v>143046</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>147057</v>
@@ -6084,7 +6084,7 @@
         <v>0.9945940981402688</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9693547272535572</v>
+        <v>0.972727925153649</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -6096,19 +6096,19 @@
         <v>223906</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>217006</v>
+        <v>217198</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>226600</v>
+        <v>226589</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9825641579886507</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.952286557402363</v>
+        <v>0.9531302325653673</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9943883205777765</v>
+        <v>0.9943374899992254</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>341</v>
@@ -6117,19 +6117,19 @@
         <v>370168</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>361678</v>
+        <v>362925</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>373589</v>
+        <v>373633</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9872825249761411</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9646403300259399</v>
+        <v>0.9679654061159461</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9964076349980781</v>
+        <v>0.9965237429150023</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>75765</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59179</v>
+        <v>59490</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>94027</v>
+        <v>95519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02843661698382717</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0222116278253261</v>
+        <v>0.0223282750856003</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03529083119505452</v>
+        <v>0.03585111023644691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>101</v>
@@ -6242,19 +6242,19 @@
         <v>103076</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>84783</v>
+        <v>82714</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>123719</v>
+        <v>123434</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03594862253117746</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02956883261323375</v>
+        <v>0.02884728732455767</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04314815243822613</v>
+        <v>0.04304862537628566</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>174</v>
@@ -6263,19 +6263,19 @@
         <v>178841</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>154653</v>
+        <v>154012</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>208093</v>
+        <v>209462</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03233044490673399</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02795793355720924</v>
+        <v>0.02784195026769296</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03761863892157622</v>
+        <v>0.03786602687634472</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2588568</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2570306</v>
+        <v>2568814</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2605154</v>
+        <v>2604843</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9715633830161728</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9647091688049451</v>
+        <v>0.9641488897635533</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9777883721746734</v>
+        <v>0.9776717249144007</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2626</v>
@@ -6313,19 +6313,19 @@
         <v>2764239</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2743596</v>
+        <v>2743881</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2782532</v>
+        <v>2784601</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9640513774688225</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9568518475617741</v>
+        <v>0.9569513746237144</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9704311673867663</v>
+        <v>0.9711527126754426</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5083</v>
@@ -6334,19 +6334,19 @@
         <v>5352807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5323555</v>
+        <v>5322186</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5376995</v>
+        <v>5377636</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.967669555093266</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9623813610784238</v>
+        <v>0.9621339731236553</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9720420664427908</v>
+        <v>0.972158049732307</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>27138</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13556</v>
+        <v>14485</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46010</v>
+        <v>47709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07163189930107416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0357805021133587</v>
+        <v>0.0382327564509343</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.121445951141277</v>
+        <v>0.1259310236985423</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -6702,19 +6702,19 @@
         <v>25940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14460</v>
+        <v>13235</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41658</v>
+        <v>40990</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07557535368631907</v>
+        <v>0.07557535368631908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04212866164066718</v>
+        <v>0.03856025278957036</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1213657726687781</v>
+        <v>0.1194197436744506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -6723,19 +6723,19 @@
         <v>53079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34601</v>
+        <v>34253</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77030</v>
+        <v>78622</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07350638012336519</v>
+        <v>0.0735063801233652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04791754156984565</v>
+        <v>0.04743575696877136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1066755623633978</v>
+        <v>0.1088803636769409</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>351716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>332844</v>
+        <v>331145</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>365298</v>
+        <v>364369</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9283681006989257</v>
+        <v>0.9283681006989258</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.878554048858723</v>
+        <v>0.8740689763014576</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9642194978866413</v>
+        <v>0.9617672435490656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -6773,19 +6773,19 @@
         <v>317300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>301582</v>
+        <v>302250</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>328780</v>
+        <v>330005</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.924424646313681</v>
+        <v>0.9244246463136808</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.878634227331222</v>
+        <v>0.8805802563255498</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9578713383593327</v>
+        <v>0.9614397472104299</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>328</v>
@@ -6794,19 +6794,19 @@
         <v>669015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>645064</v>
+        <v>643472</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>687493</v>
+        <v>687841</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9264936198766346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.893324437636602</v>
+        <v>0.8911196363230589</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.952082458430154</v>
+        <v>0.9525642430312283</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>24292</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14797</v>
+        <v>14622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41008</v>
+        <v>40075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05447922816770135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0331844181893419</v>
+        <v>0.03279218432378267</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09196762094051204</v>
+        <v>0.08987643117699347</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -6919,19 +6919,19 @@
         <v>37840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25994</v>
+        <v>26369</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52703</v>
+        <v>52396</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07840746427437782</v>
+        <v>0.07840746427437784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05386114331311782</v>
+        <v>0.05463810269163587</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1092039306869751</v>
+        <v>0.1085675830742053</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -6940,19 +6940,19 @@
         <v>62132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46716</v>
+        <v>47045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80274</v>
+        <v>82672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06691645150867924</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05031345900904974</v>
+        <v>0.05066773260188517</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08645524675197777</v>
+        <v>0.08903821960863843</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>421601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>404885</v>
+        <v>405818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>431096</v>
+        <v>431271</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9455207718322988</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9080323790594875</v>
+        <v>0.9101235688230066</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.966815581810658</v>
+        <v>0.9672078156762172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>409</v>
@@ -6990,19 +6990,19 @@
         <v>444769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>429906</v>
+        <v>430213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>456615</v>
+        <v>456240</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9215925357256221</v>
+        <v>0.9215925357256223</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8907960693130247</v>
+        <v>0.8914324169257944</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9461388566868818</v>
+        <v>0.9453618973083637</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>674</v>
@@ -7011,19 +7011,19 @@
         <v>866370</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>848228</v>
+        <v>845830</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>881786</v>
+        <v>881457</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9330835484913208</v>
+        <v>0.9330835484913207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9135447532480219</v>
+        <v>0.9109617803913621</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9496865409909494</v>
+        <v>0.9493322673981148</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>19843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11820</v>
+        <v>12674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30983</v>
+        <v>30629</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03300963480807226</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01966234542130491</v>
+        <v>0.02108400604911019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05154170819740177</v>
+        <v>0.05095342919904239</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -7136,19 +7136,19 @@
         <v>23904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16770</v>
+        <v>16363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32775</v>
+        <v>33489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03936301438061403</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02761446003008078</v>
+        <v>0.02694542787955122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05397054288007095</v>
+        <v>0.05514617707775966</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -7157,19 +7157,19 @@
         <v>43747</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32961</v>
+        <v>33094</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56586</v>
+        <v>57044</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03620251270017213</v>
+        <v>0.03620251270017212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02727629375182189</v>
+        <v>0.02738691150836196</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0468270275047146</v>
+        <v>0.04720590620900239</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>581281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>570141</v>
+        <v>570495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>589304</v>
+        <v>588450</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9669903651919277</v>
+        <v>0.9669903651919275</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9484582918025982</v>
+        <v>0.949046570800958</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9803376545786952</v>
+        <v>0.9789159939508898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>793</v>
@@ -7207,19 +7207,19 @@
         <v>583378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>574507</v>
+        <v>573793</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>590512</v>
+        <v>590919</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9606369856193859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9460294571199291</v>
+        <v>0.9448538229222404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9723855399699194</v>
+        <v>0.9730545721204488</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1303</v>
@@ -7228,19 +7228,19 @@
         <v>1164658</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1151819</v>
+        <v>1151361</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1175444</v>
+        <v>1175311</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9637974872998279</v>
+        <v>0.9637974872998277</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9531729724952858</v>
+        <v>0.9527940937909977</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9727237062481781</v>
+        <v>0.9726130884916383</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>23194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14597</v>
+        <v>15371</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33497</v>
+        <v>35056</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03419497270494726</v>
+        <v>0.03419497270494727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02152022672402537</v>
+        <v>0.02266142704168131</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04938442872258237</v>
+        <v>0.05168286979084696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -7353,19 +7353,19 @@
         <v>24895</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17676</v>
+        <v>17799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32942</v>
+        <v>34229</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03449288781529567</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02448990952400515</v>
+        <v>0.02466001550573451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04564137034714418</v>
+        <v>0.04742407503496644</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -7374,19 +7374,19 @@
         <v>48090</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37586</v>
+        <v>37567</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63063</v>
+        <v>62642</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03434855387242993</v>
+        <v>0.03434855387242994</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02684585663451858</v>
+        <v>0.02683248122376327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04504320678481796</v>
+        <v>0.04474262774869436</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>655105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>644802</v>
+        <v>643243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>663702</v>
+        <v>662928</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9658050272950527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9506155712774175</v>
+        <v>0.9483171302091531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9784797732759744</v>
+        <v>0.9773385729583188</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1081</v>
@@ -7424,19 +7424,19 @@
         <v>696862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>688815</v>
+        <v>687528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>704081</v>
+        <v>703958</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9655071121847043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9543586296528562</v>
+        <v>0.9525759249650336</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9755100904759948</v>
+        <v>0.9753399844942655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1699</v>
@@ -7445,19 +7445,19 @@
         <v>1351966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1336993</v>
+        <v>1337414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1362470</v>
+        <v>1362489</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9656514461275699</v>
+        <v>0.9656514461275703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.954956793215183</v>
+        <v>0.9552573722513057</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9731541433654813</v>
+        <v>0.9731675187762366</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>7706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3614</v>
+        <v>3222</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14701</v>
+        <v>14557</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01298643824132425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006090055405661393</v>
+        <v>0.00543028930240752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02477686894848326</v>
+        <v>0.02453393347548803</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -7570,19 +7570,19 @@
         <v>17425</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12191</v>
+        <v>11899</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25439</v>
+        <v>25163</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02924357786314579</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02046032967499106</v>
+        <v>0.01997045833590427</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04269397201135284</v>
+        <v>0.04223110162022378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -7591,19 +7591,19 @@
         <v>25130</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18739</v>
+        <v>17847</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35047</v>
+        <v>33978</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02113205374666359</v>
+        <v>0.0211320537466636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01575769553772271</v>
+        <v>0.01500774984961418</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02947131266339757</v>
+        <v>0.02857164300674473</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>585649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>578654</v>
+        <v>578798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>589741</v>
+        <v>590133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9870135617586757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9752231310515168</v>
+        <v>0.9754660665245128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9939099445943387</v>
+        <v>0.9945697106975927</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>953</v>
@@ -7641,19 +7641,19 @@
         <v>578424</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>570410</v>
+        <v>570686</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>583658</v>
+        <v>583950</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.970756422136854</v>
+        <v>0.9707564221368542</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9573060279886475</v>
+        <v>0.9577688983797763</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9795396703250089</v>
+        <v>0.9800295416640957</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1590</v>
@@ -7662,19 +7662,19 @@
         <v>1164074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1154157</v>
+        <v>1155226</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1170465</v>
+        <v>1171357</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9788679462533363</v>
+        <v>0.9788679462533365</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9705286873366025</v>
+        <v>0.9714283569932551</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9842423044622775</v>
+        <v>0.9849922501503857</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>9543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5224</v>
+        <v>5256</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17071</v>
+        <v>16106</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02399174612072052</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01313477863515427</v>
+        <v>0.01321427712329959</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04292005384103743</v>
+        <v>0.04049343135706293</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -7787,19 +7787,19 @@
         <v>10755</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6611</v>
+        <v>6656</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16276</v>
+        <v>16812</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02507445957546169</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01541187576370608</v>
+        <v>0.01551726403300491</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03794550672100153</v>
+        <v>0.03919554027739808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -7808,19 +7808,19 @@
         <v>20298</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13563</v>
+        <v>14160</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27798</v>
+        <v>27647</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02455352244913678</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01640633492853081</v>
+        <v>0.01712894115356415</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0336270706511874</v>
+        <v>0.0334441010941444</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>388201</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>380673</v>
+        <v>381638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>392520</v>
+        <v>392488</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9760082538792794</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9570799461589617</v>
+        <v>0.9595065686429377</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9868652213648456</v>
+        <v>0.9867857228767005</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>787</v>
@@ -7858,19 +7858,19 @@
         <v>418170</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>412649</v>
+        <v>412113</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>422314</v>
+        <v>422269</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9749255404245384</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9620544932789986</v>
+        <v>0.9608044597226019</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9845881242362937</v>
+        <v>0.9844827359669952</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1331</v>
@@ -7879,19 +7879,19 @@
         <v>806371</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>798871</v>
+        <v>799022</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>813106</v>
+        <v>812509</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9754464775508632</v>
+        <v>0.975446477550863</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9663729293488125</v>
+        <v>0.9665558989058557</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9835936650714695</v>
+        <v>0.982871058846436</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>6099</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2704</v>
+        <v>2532</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12967</v>
+        <v>12248</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02016939857533274</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008941647705867074</v>
+        <v>0.008373611052023203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04287739529925987</v>
+        <v>0.04050089187324257</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -8004,19 +8004,19 @@
         <v>11351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6938</v>
+        <v>6904</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16671</v>
+        <v>17381</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02546234309899428</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01556326613269383</v>
+        <v>0.0154869857575765</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03739637732044852</v>
+        <v>0.03898915414503566</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -8025,19 +8025,19 @@
         <v>17450</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11502</v>
+        <v>11203</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24742</v>
+        <v>25682</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02332301587640323</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01537332404626964</v>
+        <v>0.01497350084830711</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03306927770925444</v>
+        <v>0.03432552773256144</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>296310</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>289442</v>
+        <v>290161</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>299705</v>
+        <v>299877</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9798306014246672</v>
+        <v>0.9798306014246674</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9571226047007401</v>
+        <v>0.9594991081267572</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9910583522941327</v>
+        <v>0.9916263889479767</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>831</v>
@@ -8075,19 +8075,19 @@
         <v>434435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>429115</v>
+        <v>428405</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>438848</v>
+        <v>438882</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9745376569010058</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9626036226795517</v>
+        <v>0.9610108458549647</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9844367338673061</v>
+        <v>0.9845130142424235</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1270</v>
@@ -8096,19 +8096,19 @@
         <v>730746</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>723454</v>
+        <v>722514</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>736694</v>
+        <v>736993</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9766769841235968</v>
+        <v>0.9766769841235969</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9669307222907461</v>
+        <v>0.9656744722674386</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9846266759537304</v>
+        <v>0.9850264991516932</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>117815</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94731</v>
+        <v>95458</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147335</v>
+        <v>148268</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03467508576225804</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02788110127338435</v>
+        <v>0.02809504227481209</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04336332814405161</v>
+        <v>0.04363801519165089</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>181</v>
@@ -8221,19 +8221,19 @@
         <v>152111</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>131554</v>
+        <v>128541</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>178965</v>
+        <v>176673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04195650809230342</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03628628425703694</v>
+        <v>0.03545531454316778</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04936353356664729</v>
+        <v>0.04873128466736911</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>275</v>
@@ -8242,19 +8242,19 @@
         <v>269926</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>239728</v>
+        <v>236356</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>309514</v>
+        <v>307631</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03843387045243834</v>
+        <v>0.03843387045243835</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0341340879324009</v>
+        <v>0.03365402572286653</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04407063132243794</v>
+        <v>0.04380254174236595</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3279863</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3250343</v>
+        <v>3249410</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3302947</v>
+        <v>3302220</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9653249142377419</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9566366718559484</v>
+        <v>0.9563619848083492</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9721188987266161</v>
+        <v>0.9719049577251879</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5036</v>
@@ -8292,19 +8292,19 @@
         <v>3473337</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3446483</v>
+        <v>3448775</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3493894</v>
+        <v>3496907</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9580434919076964</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9506364664333525</v>
+        <v>0.9512687153326307</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9637137157429633</v>
+        <v>0.964544685456832</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8195</v>
@@ -8313,19 +8313,19 @@
         <v>6753199</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6713611</v>
+        <v>6715494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6783397</v>
+        <v>6786769</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9615661295475616</v>
+        <v>0.9615661295475617</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.955929368677562</v>
+        <v>0.956197458257634</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9658659120675985</v>
+        <v>0.9663459742771333</v>
       </c>
     </row>
     <row r="27">
